--- a/products/冲调饮品/饮料/给优水晶葡萄汁饮料（桶）.xlsx
+++ b/products/冲调饮品/饮料/给优水晶葡萄汁饮料（桶）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -305,15 +305,15 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.840206185567"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7474226804124"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4381443298969"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8556701030928"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.319587628866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3298969072165"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.819587628866"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.2474226804124"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
@@ -567,7 +567,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>29</v>
       </c>
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>29</v>
       </c>
@@ -589,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>29</v>
       </c>
@@ -600,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>29</v>
       </c>
@@ -630,7 +630,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A36 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -656,7 +656,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A36 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
